--- a/xlsx/_wiki_平凡的世界_intext.xlsx
+++ b/xlsx/_wiki_平凡的世界_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
   <si>
     <t>平凡的世界</t>
   </si>
@@ -576,12 +576,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ordinary_World_(novel)</t>
@@ -936,7 +930,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:G95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3126,29 +3120,6 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="s">
-        <v>0</v>
-      </c>
-      <c r="C96" t="s">
-        <v>1</v>
-      </c>
-      <c r="D96" t="n">
-        <v>95</v>
-      </c>
-      <c r="E96" t="s">
-        <v>189</v>
-      </c>
-      <c r="F96" t="s">
-        <v>190</v>
-      </c>
-      <c r="G96" t="n">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/xlsx/_wiki_平凡的世界_intext.xlsx
+++ b/xlsx/_wiki_平凡的世界_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="186">
   <si>
     <t>平凡的世界</t>
   </si>
@@ -23,559 +23,550 @@
     <t>https://zh.wikipedia.org/zh-cn/%E5%B9%B3%E5%87%A1%E7%9A%84%E4%B8%96%E7%95%8C</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%87%A1%E7%9A%84%E4%B8%96%E7%95%8C_(2015%E5%B9%B4%E7%94%B5%E8%A7%86%E5%89%A7)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B9%B3%E5%87%A1%E7%9A%84%E4%B8%96%E7%95%8C_(2015%E5%B9%B4%E7%94%B5%E8%A7%86%E5%89%A7)</t>
   </si>
   <si>
     <t>平凡的世界 (2015年电视剧)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E9%81%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B7%AF%E9%81%A5</t>
   </si>
   <si>
     <t>路遥</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%95%E8%A5%BF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%99%95%E8%A5%BF</t>
   </si>
   <si>
     <t>陕西</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8C%85%E7%9B%BE%E6%96%87%E5%AD%A6%E5%A5%96</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%8C%85%E7%9B%BE%E6%96%87%E5%AD%A6%E5%A5%96</t>
   </si>
   <si>
     <t>茅盾文学奖</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E4%BA%BA%E6%B0%91%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%A4%AE%E4%BA%BA%E6%B0%91%E5%B9%BF%E6%92%AD%E7%94%B5%E5%8F%B0</t>
   </si>
   <si>
     <t>中央人民广播电台</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E5%9C%9F%E9%AB%98%E5%8E%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%BB%84%E5%9C%9F%E9%AB%98%E5%8E%9F</t>
   </si>
   <si>
     <t>黄土高原</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%99%E5%B0%91%E5%B9%B3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AD%99%E5%B0%91%E5%B9%B3</t>
   </si>
   <si>
     <t>孙少平</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E5%88%92%E7%BB%8F%E6%B5%8E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%AE%A1%E5%88%92%E7%BB%8F%E6%B5%8E</t>
   </si>
   <si>
     <t>计划经济</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%B6%E7%BA%A7%E6%88%90%E4%BB%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%98%B6%E7%BA%A7%E6%88%90%E4%BB%BD</t>
   </si>
   <si>
     <t>阶级成分</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BD%A9%E7%A4%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BD%A9%E7%A4%BC</t>
   </si>
   <si>
     <t>彩礼</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E8%81%94%E4%BA%A7%E6%89%BF%E5%8C%85%E8%B4%A3%E4%BB%BB%E5%88%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AE%B6%E5%BA%AD%E8%81%94%E4%BA%A7%E6%89%BF%E5%8C%85%E8%B4%A3%E4%BB%BB%E5%88%B6</t>
   </si>
   <si>
     <t>家庭联产承包责任制</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%96%87%E5%8C%96%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
     <t>文化大革命</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AA%A1%E5%AD%90</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%AA%A1%E5%AD%90</t>
   </si>
   <si>
     <t>骡子</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A0%96</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%A0%96</t>
   </si>
   <si>
     <t>砖</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AA%91%E6%B4%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%AA%91%E6%B4%9E</t>
   </si>
   <si>
     <t>窑洞</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E5%B7%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B0%91%E5%B7%A5</t>
   </si>
   <si>
     <t>民工</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%85%97%E9%85%92</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%85%97%E9%85%92</t>
   </si>
   <si>
     <t>酗酒</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%B0%E8%80%85</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%AE%B0%E8%80%85</t>
   </si>
   <si>
     <t>记者</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9F%BF%E5%B7%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%9F%BF%E5%B7%A5</t>
   </si>
   <si>
     <t>矿工</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E4%BD%93%E7%89%A9%E7%90%86</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A4%A9%E4%BD%93%E7%89%A9%E7%90%86</t>
   </si>
   <si>
     <t>天体物理</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%B9%E9%9D%A9%E5%BC%80%E6%94%BE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%94%B9%E9%9D%A9%E5%BC%80%E6%94%BE</t>
   </si>
   <si>
     <t>改革开放</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%BA%E7%99%8C</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%82%BA%E7%99%8C</t>
   </si>
   <si>
     <t>肺癌</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%87%E9%9D%A9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%96%87%E9%9D%A9</t>
   </si>
   <si>
     <t>文革</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%94%B5%E8%A7%86%E5%89%A7%E5%88%B6%E4%BD%9C%E4%B8%AD%E5%BF%83</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD%E7%94%B5%E8%A7%86%E5%89%A7%E5%88%B6%E4%BD%9C%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
     <t>中国电视剧制作中心</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E9%9B%B7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8E%8B%E9%9B%B7</t>
   </si>
   <si>
     <t>王雷</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%B0%8F%E8%90%8C_(%E6%BC%94%E5%91%98)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%8E%E5%B0%8F%E8%90%8C_(%E6%BC%94%E5%91%98)</t>
   </si>
   <si>
     <t>李小萌 (演员)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%9F%E4%B8%BD%E5%A8%85</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BD%9F%E4%B8%BD%E5%A8%85</t>
   </si>
   <si>
     <t>佟丽娅</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%98%E5%A8%81</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%88%98%E5%A8%81</t>
   </si>
   <si>
     <t>刘威</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E8%8C%85%E7%9B%BE%E6%96%87%E5%AD%A6%E5%A5%96</t>
+    <t>https://zh.wikipedia.org/zh-cn/Template_talk:%E8%8C%85%E7%9B%BE%E6%96%87%E5%AD%A6%E5%A5%96</t>
   </si>
   <si>
     <t>Template talk-茅盾文学奖</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%AD%8F%E5%B7%8D_(%E4%BD%9C%E5%AE%B6)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%AD%8F%E5%B7%8D_(%E4%BD%9C%E5%AE%B6)</t>
   </si>
   <si>
     <t>魏巍 (作家)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E5%85%8B%E8%8A%B9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%91%A8%E5%85%8B%E8%8A%B9</t>
   </si>
   <si>
     <t>周克芹</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%AE%B8%E8%8C%82%E5%92%8C%E4%BB%96%E7%9A%84%E5%A5%B3%E5%84%BF%E4%BB%AC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%AE%B8%E8%8C%82%E5%92%8C%E4%BB%96%E7%9A%84%E5%A5%B3%E5%84%BF%E4%BB%AC</t>
   </si>
   <si>
     <t>许茂和他的女儿们</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%9A%E9%9B%AA%E5%9E%A0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A7%9A%E9%9B%AA%E5%9E%A0</t>
   </si>
   <si>
     <t>姚雪垠</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E8%87%AA%E6%88%90_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%8E%E8%87%AA%E6%88%90_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>李自成 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E5%BA%94%E4%B8%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%8E%AB%E5%BA%94%E4%B8%B0</t>
   </si>
   <si>
     <t>莫应丰</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%9B%BD%E6%96%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%8E%E5%9B%BD%E6%96%87</t>
   </si>
   <si>
     <t>李国文</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E5%8D%8E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8F%A4%E5%8D%8E</t>
   </si>
   <si>
     <t>古华</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8A%99%E8%93%89%E9%95%87_(%E5%B0%8F%E8%AF%B4)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%8A%99%E8%93%89%E9%95%87_(%E5%B0%8F%E8%AF%B4)</t>
   </si>
   <si>
     <t>芙蓉镇 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%A0%E6%B4%81</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BC%A0%E6%B4%81</t>
   </si>
   <si>
     <t>张洁</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%98%E5%BF%83%E6%AD%A6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%88%98%E5%BF%83%E6%AD%A6</t>
   </si>
   <si>
     <t>刘心武</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%92%9F%E9%BC%93%E6%A5%BC_(%E5%B0%8F%E8%AF%B4)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%92%9F%E9%BC%93%E6%A5%BC_(%E5%B0%8F%E8%AF%B4)</t>
   </si>
   <si>
     <t>钟鼓楼 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%87%86_(%E4%BD%9C%E5%AE%B6)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%8E%E5%87%86_(%E4%BD%9C%E5%AE%B6)</t>
   </si>
   <si>
     <t>李准 (作家)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BB%84%E6%B2%B3%E4%B8%9C%E6%B5%81%E5%8E%BB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%BB%84%E6%B2%B3%E4%B8%9C%E6%B5%81%E5%8E%BB</t>
   </si>
   <si>
     <t>黄河东流去</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%87%8C%E5%8A%9B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%87%8C%E5%8A%9B</t>
   </si>
   <si>
     <t>凌力</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E5%B9%B4%E5%A4%A9%E5%AD%90</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%B0%91%E5%B9%B4%E5%A4%A9%E5%AD%90</t>
   </si>
   <si>
     <t>少年天子</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%99%E5%8A%9B_(%E4%BD%9C%E5%AE%B6)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AD%99%E5%8A%9B_(%E4%BD%9C%E5%AE%B6)</t>
   </si>
   <si>
     <t>孙力 (作家)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%99%E5%B0%8F%E6%83%A0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BD%99%E5%B0%8F%E6%83%A0</t>
   </si>
   <si>
     <t>余小惠</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%98%E7%99%BD%E7%BE%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%88%98%E7%99%BD%E7%BE%BD</t>
   </si>
   <si>
     <t>刘白羽</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9C%8D%E8%BE%BE_(%E4%BD%9C%E5%AE%B6)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%9C%8D%E8%BE%BE_(%E4%BD%9C%E5%AE%B6)</t>
   </si>
   <si>
     <t>霍达 (作家)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A9%86%E6%96%AF%E6%9E%97%E7%9A%84%E8%91%AC%E7%A4%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%A9%86%E6%96%AF%E6%9E%97%E7%9A%84%E8%91%AC%E7%A4%BC</t>
   </si>
   <si>
     <t>穆斯林的葬礼</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%90%A7%E5%85%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%90%A7%E5%85%8B</t>
   </si>
   <si>
     <t>萧克</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BE%90%E5%85%B4%E4%B8%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BE%90%E5%85%B4%E4%B8%9A</t>
   </si>
   <si>
     <t>徐兴业</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%99%88%E5%BF%A0%E5%AE%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%99%88%E5%BF%A0%E5%AE%9E</t>
   </si>
   <si>
     <t>陈忠实</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E9%B9%BF%E5%8E%9F_(%E5%B0%8F%E8%AF%B4)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%99%BD%E9%B9%BF%E5%8E%9F_(%E5%B0%8F%E8%AF%B4)</t>
   </si>
   <si>
     <t>白鹿原 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E7%81%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8E%8B%E7%81%AB</t>
   </si>
   <si>
     <t>王火</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%98%E6%96%AF%E5%A5%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%88%98%E6%96%AF%E5%A5%8B</t>
   </si>
   <si>
     <t>刘斯奋</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%98%E7%8E%89%E6%B0%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%88%98%E7%8E%89%E6%B0%91</t>
   </si>
   <si>
     <t>刘玉民</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%9D%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%98%BF%E6%9D%A5</t>
   </si>
   <si>
     <t>阿来</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A1%B5%E5%9F%83%E8%90%BD%E5%AE%9A_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A1%B5%E5%9F%83%E8%90%BD%E5%AE%9A_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>尘埃落定 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E5%AE%89%E6%86%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8E%8B%E5%AE%89%E6%86%B6</t>
   </si>
   <si>
     <t>王安忆</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E6%81%A8%E6%AD%8C_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%95%B7%E6%81%A8%E6%AD%8C_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>长恨歌 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%A0%E5%B9%B3_(%E4%BD%9C%E5%AE%B6)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BC%A0%E5%B9%B3_(%E4%BD%9C%E5%AE%B6)</t>
   </si>
   <si>
     <t>张平 (作家)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E6%97%AD%E7%83%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8E%8B%E6%97%AD%E7%83%BD</t>
   </si>
   <si>
     <t>王旭烽</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%86%8A%E5%8F%AC%E6%94%BF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%86%8A%E5%8F%AC%E6%94%BF</t>
   </si>
   <si>
     <t>熊召政</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%B5%E5%B1%85%E6%AD%A3_(%E5%B0%8F%E8%AA%AA)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BC%B5%E5%B1%85%E6%AD%A3_(%E5%B0%8F%E8%AA%AA)</t>
   </si>
   <si>
     <t>张居正 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A5%9A%E6%98%A5%E7%A7%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%A5%9A%E6%98%A5%E7%A7%8B</t>
   </si>
   <si>
     <t>楚春秋</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2%E7%9A%84%E5%A4%A9%E7%A9%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8E%86%E5%8F%B2%E7%9A%84%E5%A4%A9%E7%A9%BA</t>
   </si>
   <si>
     <t>历史的天空</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9F%B3%E5%BB%BA%E4%BC%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9F%B3%E5%BB%BA%E4%BC%9F</t>
   </si>
   <si>
     <t>柳建伟</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E7%92%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AE%97%E7%92%9E</t>
   </si>
   <si>
     <t>宗璞</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B4%BE%E5%B9%B3%E5%87%B9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B4%BE%E5%B9%B3%E5%87%B9</t>
   </si>
   <si>
     <t>贾平凹</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A7%A6%E8%85%94_(%E5%B0%8F%E8%AF%B4)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%A7%A6%E8%85%94_(%E5%B0%8F%E8%AF%B4)</t>
   </si>
   <si>
     <t>秦腔 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BF%9F%E5%AD%90%E5%BB%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%BF%9F%E5%AD%90%E5%BB%BA</t>
   </si>
   <si>
     <t>迟子建</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%A2%9D%E5%B0%94%E5%8F%A4%E7%BA%B3%E6%B2%B3%E5%8F%B3%E5%B2%B8_(%E9%95%BF%E7%AF%87%E5%B0%8F%E8%AF%B4)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%A2%9D%E5%B0%94%E5%8F%A4%E7%BA%B3%E6%B2%B3%E5%8F%B3%E5%B2%B8_(%E9%95%BF%E7%AF%87%E5%B0%8F%E8%AF%B4)</t>
   </si>
   <si>
     <t>额尔古纳河右岸 (长篇小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%BA%A6%E5%AE%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%BA%A6%E5%AE%B6</t>
   </si>
   <si>
     <t>麦家</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9A%97%E7%AE%97_(%E9%BA%A6%E5%AE%B6)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9A%97%E7%AE%97_(%E9%BA%A6%E5%AE%B6)</t>
   </si>
   <si>
     <t>暗算 (麦家)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E5%A4%A7%E6%96%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%91%A8%E5%A4%A7%E6%96%B0</t>
   </si>
   <si>
     <t>周大新</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%A0%E7%82%9C_(%E4%BD%9C%E5%AE%B6)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BC%A0%E7%82%9C_(%E4%BD%9C%E5%AE%B6)</t>
   </si>
   <si>
     <t>张炜 (作家)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BD%A0%E5%9C%A8%E9%AB%98%E5%8E%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BD%A0%E5%9C%A8%E9%AB%98%E5%8E%9F</t>
   </si>
   <si>
     <t>你在高原</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%98%E9%86%92%E9%BE%99</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%88%98%E9%86%92%E9%BE%99</t>
   </si>
   <si>
     <t>刘醒龙</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%95%A2%E9%A3%9B%E5%AE%87</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%95%A2%E9%A3%9B%E5%AE%87</t>
   </si>
   <si>
     <t>毕飞宇</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E8%A8%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%8E%AB%E8%A8%80</t>
   </si>
   <si>
     <t>莫言</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%9B%99_(%E5%B0%8F%E8%AF%B4)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%9B%99_(%E5%B0%8F%E8%AF%B4)</t>
   </si>
   <si>
     <t>蛙 (小说)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%98%E9%9C%87%E4%BA%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%88%98%E9%9C%87%E4%BA%91</t>
   </si>
   <si>
     <t>刘震云</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%8F%A5%E9%A1%B6%E4%B8%80%E4%B8%87%E5%8F%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%80%E5%8F%A5%E9%A1%B6%E4%B8%80%E4%B8%87%E5%8F%A5</t>
   </si>
   <si>
     <t>一句顶一万句</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%9D%9E</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%A0%BC%E9%9D%9E</t>
   </si>
   <si>
     <t>格非</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%8E%8B%E8%92%99_(%E4%BD%9C%E5%AE%B6)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%8E%8B%E8%92%99_(%E4%BD%9C%E5%AE%B6)</t>
   </si>
   <si>
     <t>王蒙 (作家)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E4%BD%A9%E7%94%AB</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%8E%E4%BD%A9%E7%94%AB</t>
   </si>
   <si>
     <t>李佩甫</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E5%86%8C</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%94%9F%E5%91%BD%E5%86%8C</t>
   </si>
   <si>
     <t>生命册</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%87%91%E5%AE%87%E6%BE%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%87%91%E5%AE%87%E6%BE%84</t>
   </si>
   <si>
     <t>金宇澄</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%B9%81%E8%8A%B1</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%B9%81%E8%8A%B1</t>
   </si>
   <si>
     <t>繁花</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E7%AB%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%8B%8F%E7%AB%A5</t>
   </si>
   <si>
     <t>苏童</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E5%87%A1%E7%9A%84%E4%B8%96%E7%95%8C</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Ordinary_World_(novel)</t>
@@ -930,7 +921,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G95"/>
+  <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1001,7 +992,7 @@
         <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -3071,52 +3062,6 @@
         <v>185</v>
       </c>
       <c r="G93" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="s">
-        <v>0</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1</v>
-      </c>
-      <c r="D94" t="n">
-        <v>93</v>
-      </c>
-      <c r="E94" t="s">
-        <v>184</v>
-      </c>
-      <c r="F94" t="s">
-        <v>186</v>
-      </c>
-      <c r="G94" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="s">
-        <v>0</v>
-      </c>
-      <c r="C95" t="s">
-        <v>1</v>
-      </c>
-      <c r="D95" t="n">
-        <v>94</v>
-      </c>
-      <c r="E95" t="s">
-        <v>187</v>
-      </c>
-      <c r="F95" t="s">
-        <v>188</v>
-      </c>
-      <c r="G95" t="n">
         <v>1</v>
       </c>
     </row>
